--- a/数据整理/stocks/A股/深证主板/002092-中泰化学.xlsx
+++ b/数据整理/stocks/A股/深证主板/002092-中泰化学.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,20 +512,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.51</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.21</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -566,26 +596,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004913</t>
+          <t>720001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中银证券聚瑞混合A</t>
+          <t>财通价值动量混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>27.10</t>
+          <t>19.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>79.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1293</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -594,26 +634,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004914</t>
+          <t>001480</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中银证券聚瑞混合C</t>
+          <t>财通成长优选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>27.10</t>
+          <t>14.61</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>95.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8605</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -622,26 +672,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004724</t>
+          <t>501085</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>先锋聚元灵活配置混合A</t>
+          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>11.60</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6925</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -650,26 +710,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004725</t>
+          <t>002943</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>先锋聚元灵活配置混合C</t>
+          <t>广发多因子灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>8.52</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4217</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -678,26 +748,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006377</t>
+          <t>008983</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发趋势动力灵活配置混合</t>
+          <t>财通科技创新混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>84.88</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3636</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -706,26 +786,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006401</t>
+          <t>009062</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>先锋量化优选灵活配置混合A</t>
+          <t>财通智慧成长混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2529</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -734,26 +824,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006402</t>
+          <t>501046</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>先锋量化优选灵活配置混合C</t>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1593</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -762,26 +862,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>310368</t>
+          <t>001277</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>申万菱信竞争优势混合</t>
+          <t>博时国企改革主题股票</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>88.29</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7.61</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -790,26 +900,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>501032</t>
+          <t>161611</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>财通福盛多策略混合（LOF）</t>
+          <t>融通内需驱动混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>87.85</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>6.41</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
+          <t>73.22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -818,26 +938,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>501046</t>
+          <t>005273</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>财通多策略福鑫定期开放灵活配置混合</t>
+          <t>华商可转债债券A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>87.45</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>6.27</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
+          <t>42.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -846,26 +976,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>501085</t>
+          <t>009063</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
+          <t>财通智慧成长混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>89.41</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.97</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001277</t>
+          <t>501032</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>博时国企改革主题股票</t>
+          <t>财通福盛多策略混合（LOF）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>88.32</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001480</t>
+          <t>008984</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>财通成长优选混合</t>
+          <t>财通科技创新混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>95.27</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5.89</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>5</v>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>515590</t>
+          <t>002601</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>前海开源中证500等权重ETF</t>
+          <t>中银证券价值精选灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>96.64</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>7</v>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>159990</t>
+          <t>002938</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>银华巨潮小盘价值ETF</t>
+          <t>中银证券健康产业灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>97.96</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>161611</t>
+          <t>005284</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>融通内需驱动混合</t>
+          <t>华商可转债债券C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>73.22</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
+          <t>42.82</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1024,15 +1214,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>94.90</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1.60</t>
         </is>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>720001</t>
+          <t>310368</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>财通价值动量混合</t>
+          <t>申万菱信竞争优势混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>79.67</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>3</v>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>005273</t>
+          <t>006377</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>华商可转债债券A</t>
+          <t>广发趋势动力灵活配置混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>42.82</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>5</v>
+          <t>84.88</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>005284</t>
+          <t>159990</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>华商可转债债券C</t>
+          <t>银华巨潮小盘价值ETF</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>42.82</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>5</v>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>002601</t>
+          <t>006401</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中银证券价值精选灵活配置混合</t>
+          <t>先锋量化优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>93.23</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>8</v>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>008983</t>
+          <t>004724</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>财通科技创新混合A</t>
+          <t>先锋聚元灵活配置混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>92.34</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>6.39</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>3</v>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>008984</t>
+          <t>515590</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>财通科技创新混合C</t>
+          <t>前海开源中证500等权重ETF</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>92.34</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>6.39</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>3</v>
+          <t>96.64</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>009062</t>
+          <t>004913</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>财通智慧成长混合A</t>
+          <t>中银证券聚瑞混合A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>91.84</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5.76</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>4</v>
+          <t>27.10</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>009063</t>
+          <t>004725</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>财通智慧成长混合C</t>
+          <t>先锋聚元灵活配置混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>91.84</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>5.76</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>4</v>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -1266,26 +1546,30 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>002938</t>
+          <t>004914</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>中银证券健康产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>90.75</t>
-        </is>
-      </c>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>6.44</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>5</v>
+          <t>27.10</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -1294,26 +1578,30 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>002943</t>
+          <t>006402</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>广发多因子灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>94.58</t>
-        </is>
-      </c>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>6</v>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002092-中泰化学.xlsx
+++ b/数据整理/stocks/A股/深证主板/002092-中泰化学.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1554,7 +1555,6 @@
           <t>中银证券聚瑞混合C</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
           <t>27.10</t>
@@ -1586,7 +1586,6 @@
           <t>先锋量化优选灵活配置混合C</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
           <t>93.83</t>
@@ -1602,6 +1601,1012 @@
       </c>
       <c r="H28" t="n">
         <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2726</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8613</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501085</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7682</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6208</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008983</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4042</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2804</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2706</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1766</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002601</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银证券价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008984</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501032</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002938</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中银证券健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006377</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发趋势动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006522</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>32.83</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006523</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>32.83</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002092-中泰化学.xlsx
+++ b/数据整理/stocks/A股/深证主板/002092-中泰化学.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2612,4 +2613,934 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>41.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8048</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002601</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银证券价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5230</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>210003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰行业优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3403</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005660</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2718</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010029</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>30.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2013</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002934</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1582</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005823</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康颐享混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>23.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1264</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002430</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中银丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>21.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002935</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005661</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005824</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰康颐享混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002616</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中银益利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001370</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中银新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>28.03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002938</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银证券健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010030</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>30.28</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011155</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>74.78</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002431</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中银丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>21.59</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>96.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011156</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>74.78</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002617</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中银益利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>44.22</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>44.22</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002092-中泰化学.xlsx
+++ b/数据整理/stocks/A股/深证主板/002092-中泰化学.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3543,4 +3544,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>27</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002092-中泰化学.xlsx
+++ b/数据整理/stocks/A股/深证主板/002092-中泰化学.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3552,7 +3553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3563,17 +3564,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3583,14 +3604,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.13</v>
+          <t>005660</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1863</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3599,14 +3642,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.1</v>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实腾讯自选股大数据策略股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1153</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -3615,14 +3680,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>005661</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>4.42</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="5">
@@ -3631,13 +3802,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002092-中泰化学.xlsx
+++ b/数据整理/stocks/A股/深证主板/002092-中泰化学.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3723,7 +3724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3734,17 +3735,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3754,14 +3775,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.36</v>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7284</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -3770,14 +3813,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>23</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.13</v>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1979</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -3786,14 +3851,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>001037</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银锐意改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>5.1</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="5">
@@ -3802,14 +3973,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>4.42</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="6">
@@ -3818,13 +3989,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>27</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002092-中泰化学.xlsx
+++ b/数据整理/stocks/A股/深证主板/002092-中泰化学.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3894,7 +3895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3905,17 +3906,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3925,14 +3946,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3941,14 +4036,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.36</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="4">
@@ -3957,14 +4052,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>3.13</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="5">
@@ -3973,14 +4068,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
-        <v>5.1</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="6">
@@ -3989,14 +4084,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>4.42</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="7">
@@ -4005,13 +4100,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>27</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002092-中泰化学.xlsx
+++ b/数据整理/stocks/A股/深证主板/002092-中泰化学.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.36</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>3.13</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>5.1</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>4.42</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>27</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -600,6 +617,252 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000646</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>73.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004260</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>德邦稳盈增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007827</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009649</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>58.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009650</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>58.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -685,176 +948,6 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002666</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>前海开源沪港深创新成长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>11.96</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>81.64</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.09</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7284</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002667</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源沪港深创新成长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>81.64</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.09</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1979</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001037</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国投瑞银锐意改革灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>88.37</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0905</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -920,36 +1013,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005660</t>
+          <t>002666</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实资源精选股票A</t>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>11.96</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.72</t>
+          <t>81.64</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>6.09</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1863</t>
+          <t>0.7284</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -958,36 +1051,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001637</t>
+          <t>002667</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉实腾讯自选股大数据策略股票</t>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.48</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.03</t>
+          <t>81.64</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>6.09</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1153</t>
+          <t>0.1979</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -996,36 +1089,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005661</t>
+          <t>001037</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉实资源精选股票C</t>
+          <t>国投瑞银锐意改革灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.72</t>
+          <t>88.37</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0588</t>
+          <t>0.0905</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1034,6 +1127,176 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005660</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1863</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实腾讯自选股大数据策略股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1153</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005661</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1963,7 +2226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2969,7 +3232,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4037,7 +4300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002092-中泰化学.xlsx
+++ b/数据整理/stocks/A股/深证主板/002092-中泰化学.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.14</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.36</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>3.13</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" t="n">
-        <v>5.1</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>4.42</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,124 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>27</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.06</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -673,36 +784,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000646</t>
+          <t>161715</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华润元大量化优选混合A</t>
+          <t>招商中证大宗商品股票指数（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>73.62</t>
+          <t>94.56</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0710</t>
+          <t>0.0188</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -711,36 +822,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004260</t>
+          <t>000646</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>德邦稳盈增长灵活配置混合</t>
+          <t>华润元大量化优选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.81</t>
+          <t>65.16</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>8.49</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0549</t>
+          <t>0.0161</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -749,36 +860,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007827</t>
+          <t>540004</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华润元大量化优选混合C</t>
+          <t>汇丰晋信2026周期混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>73.62</t>
+          <t>23.97</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0092</t>
+          <t>0.0125</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -787,36 +898,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009649</t>
+          <t>159990</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实精选平衡混合A</t>
+          <t>银华巨潮小盘价值ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>58.93</t>
+          <t>97.02</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0016</t>
+          <t>0.0084</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -825,36 +936,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009650</t>
+          <t>007827</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉实精选平衡混合C</t>
+          <t>华润元大量化优选混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>58.93</t>
+          <t>65.16</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>8.49</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0011</t>
+          <t>0.0008</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -863,6 +974,252 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000646</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>73.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004260</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>德邦稳盈增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007827</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009649</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>58.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009650</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>58.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -948,176 +1305,6 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002666</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>前海开源沪港深创新成长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>11.96</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>81.64</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.09</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7284</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002667</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源沪港深创新成长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>81.64</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.09</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1979</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001037</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国投瑞银锐意改革灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>88.37</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0905</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1183,36 +1370,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005660</t>
+          <t>002666</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实资源精选股票A</t>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>11.96</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.72</t>
+          <t>81.64</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>6.09</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1863</t>
+          <t>0.7284</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1221,36 +1408,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001637</t>
+          <t>002667</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉实腾讯自选股大数据策略股票</t>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.48</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.03</t>
+          <t>81.64</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>6.09</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1153</t>
+          <t>0.1979</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1259,36 +1446,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005661</t>
+          <t>001037</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉实资源精选股票C</t>
+          <t>国投瑞银锐意改革灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.72</t>
+          <t>88.37</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0588</t>
+          <t>0.0905</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1297,6 +1484,176 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005660</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1863</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实腾讯自选股大数据策略股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1153</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005661</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2226,7 +2583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3232,7 +3589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4298,98 +4655,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002943</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发多因子灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0646</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>